--- a/src/test/resources/Excel/ProdCredentials.xlsx
+++ b/src/test/resources/Excel/ProdCredentials.xlsx
@@ -70,25 +70,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,10 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +406,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +460,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">

--- a/src/test/resources/Excel/ProdCredentials.xlsx
+++ b/src/test/resources/Excel/ProdCredentials.xlsx
@@ -60,10 +60,10 @@
     <t>ExamDec12</t>
   </si>
   <si>
-    <t>jersey026.tt21.5</t>
-  </si>
-  <si>
     <t>F247A0</t>
+  </si>
+  <si>
+    <t>dec9.examtaker.5</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -476,7 +476,7 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
